--- a/simulation_data/iterative_algorithm/i_error_level_14_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_14_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.62673092700339</v>
+        <v>88.30408379158769</v>
       </c>
       <c r="D2" t="n">
-        <v>16.69054891250396</v>
+        <v>16.99380129321473</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.48493134880734</v>
+        <v>88.26903218907466</v>
       </c>
       <c r="D3" t="n">
-        <v>17.29566318373998</v>
+        <v>16.28370936959223</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.6637171816857</v>
+        <v>87.6639039096637</v>
       </c>
       <c r="D4" t="n">
-        <v>16.85033359095604</v>
+        <v>14.43279396752835</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.03587371128665</v>
+        <v>83.32017276171179</v>
       </c>
       <c r="D5" t="n">
-        <v>15.98825526835694</v>
+        <v>16.60489057846811</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.68682713284703</v>
+        <v>87.35454166359828</v>
       </c>
       <c r="D6" t="n">
-        <v>13.47045430537819</v>
+        <v>16.26809697651855</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.54094704596771</v>
+        <v>84.55995289328685</v>
       </c>
       <c r="D7" t="n">
-        <v>16.76969168161339</v>
+        <v>15.51470737621308</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.1945088202019</v>
+        <v>80.86723953762449</v>
       </c>
       <c r="D8" t="n">
-        <v>14.58074680316215</v>
+        <v>15.99290866493054</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.15368067474199</v>
+        <v>80.5587821785095</v>
       </c>
       <c r="D9" t="n">
-        <v>16.30461044390005</v>
+        <v>14.12323626363691</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.45126839545551</v>
+        <v>80.28461490868389</v>
       </c>
       <c r="D10" t="n">
-        <v>15.79730111370698</v>
+        <v>17.31996860053947</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>78.1022386265431</v>
+        <v>80.65282621309385</v>
       </c>
       <c r="D11" t="n">
-        <v>18.12135109418306</v>
+        <v>14.78042531064142</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.91167068504305</v>
+        <v>78.55989007393167</v>
       </c>
       <c r="D12" t="n">
-        <v>16.58447023602674</v>
+        <v>16.94178413033731</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.88570173679715</v>
+        <v>80.57267557691438</v>
       </c>
       <c r="D13" t="n">
-        <v>15.26499799232491</v>
+        <v>14.36564974896514</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.82109274310262</v>
+        <v>75.63980122543194</v>
       </c>
       <c r="D14" t="n">
-        <v>15.64384234062337</v>
+        <v>16.00783973892541</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.96067351692778</v>
+        <v>74.03580572305823</v>
       </c>
       <c r="D15" t="n">
-        <v>16.70425741404287</v>
+        <v>14.45715653550779</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>73.74871873171139</v>
+        <v>75.92895974126222</v>
       </c>
       <c r="D16" t="n">
-        <v>15.85299216146488</v>
+        <v>17.28072684735344</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.51370965876511</v>
+        <v>76.65226322799049</v>
       </c>
       <c r="D17" t="n">
-        <v>16.70605119379296</v>
+        <v>13.66276906015034</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.61910395552239</v>
+        <v>75.42136881610217</v>
       </c>
       <c r="D18" t="n">
-        <v>16.66850425146395</v>
+        <v>14.76489994236029</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>70.48349952186234</v>
+        <v>73.01249923162564</v>
       </c>
       <c r="D19" t="n">
-        <v>16.046611629465</v>
+        <v>16.34388676276955</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.59233720644983</v>
+        <v>73.23505099322171</v>
       </c>
       <c r="D20" t="n">
-        <v>15.0567432216847</v>
+        <v>16.24759596260713</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.68228315100218</v>
+        <v>71.91986823114588</v>
       </c>
       <c r="D21" t="n">
-        <v>17.65816636942002</v>
+        <v>17.02202097138391</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>67.22257049872836</v>
+        <v>72.16148892362123</v>
       </c>
       <c r="D22" t="n">
-        <v>15.44062671653293</v>
+        <v>16.49016671165883</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.8461482473159</v>
+        <v>70.27668805383907</v>
       </c>
       <c r="D23" t="n">
-        <v>18.20516024099407</v>
+        <v>14.252073938047</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.53070642802781</v>
+        <v>67.9302570479112</v>
       </c>
       <c r="D24" t="n">
-        <v>15.30705839775662</v>
+        <v>16.79412148326797</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.04856657691269</v>
+        <v>66.06707282342974</v>
       </c>
       <c r="D25" t="n">
-        <v>16.22786278095759</v>
+        <v>15.37504155345621</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.94522767196408</v>
+        <v>64.2837329546157</v>
       </c>
       <c r="D26" t="n">
-        <v>15.68847289985037</v>
+        <v>16.45333976940431</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.10938977818083</v>
+        <v>62.37091007689455</v>
       </c>
       <c r="D27" t="n">
-        <v>16.91672981329913</v>
+        <v>16.4791522453963</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.49794448642813</v>
+        <v>63.43807269115609</v>
       </c>
       <c r="D28" t="n">
-        <v>17.03872350819275</v>
+        <v>18.19086729428128</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.06535165031509</v>
+        <v>61.87637926258559</v>
       </c>
       <c r="D29" t="n">
-        <v>16.75911924922506</v>
+        <v>15.17799537721554</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.57287989976929</v>
+        <v>61.41429730414175</v>
       </c>
       <c r="D30" t="n">
-        <v>17.661910428584</v>
+        <v>15.52917823727167</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.09925798253723</v>
+        <v>58.60500082759512</v>
       </c>
       <c r="D31" t="n">
-        <v>17.20789061056059</v>
+        <v>15.57079380995542</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.97011068194366</v>
+        <v>59.74852115252943</v>
       </c>
       <c r="D32" t="n">
-        <v>17.31536906784518</v>
+        <v>15.15353335533481</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.60902529671883</v>
+        <v>61.63117900231429</v>
       </c>
       <c r="D33" t="n">
-        <v>15.55124909443996</v>
+        <v>16.29311965083181</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.4027835787377</v>
+        <v>57.65627340288889</v>
       </c>
       <c r="D34" t="n">
-        <v>15.93498528471935</v>
+        <v>15.52455481640807</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.14054257781748</v>
+        <v>56.92354849897067</v>
       </c>
       <c r="D35" t="n">
-        <v>17.05790175325793</v>
+        <v>15.17708270018603</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.61578945757419</v>
+        <v>53.99817202398756</v>
       </c>
       <c r="D36" t="n">
-        <v>15.84585040987548</v>
+        <v>17.80551488685024</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.62536919832305</v>
+        <v>53.86572039194898</v>
       </c>
       <c r="D37" t="n">
-        <v>18.47135934540095</v>
+        <v>16.30896130113091</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.55433376294542</v>
+        <v>53.88483567133367</v>
       </c>
       <c r="D38" t="n">
-        <v>15.34996289464703</v>
+        <v>14.95712803691391</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.26135221897547</v>
+        <v>50.49279330413015</v>
       </c>
       <c r="D39" t="n">
-        <v>17.51879388346243</v>
+        <v>17.89894290086438</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.54076287150593</v>
+        <v>51.94832036637639</v>
       </c>
       <c r="D40" t="n">
-        <v>16.36553309241972</v>
+        <v>15.72152055001889</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.0814822118481</v>
+        <v>48.60218936954793</v>
       </c>
       <c r="D41" t="n">
-        <v>16.22038362204074</v>
+        <v>15.62824807733981</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>46.92160521602776</v>
+        <v>50.34376295914237</v>
       </c>
       <c r="D42" t="n">
-        <v>15.7023442964966</v>
+        <v>15.38352241948413</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.5784552469142</v>
+        <v>46.9937719867412</v>
       </c>
       <c r="D43" t="n">
-        <v>17.48902168750412</v>
+        <v>17.54047213529843</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.9482571064129</v>
+        <v>48.22252832588629</v>
       </c>
       <c r="D44" t="n">
-        <v>16.45875241559779</v>
+        <v>16.16414598919388</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.72199889399224</v>
+        <v>44.23652357290373</v>
       </c>
       <c r="D45" t="n">
-        <v>18.50121385380086</v>
+        <v>15.42295526178477</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>50.50563493682944</v>
+        <v>47.16759198558108</v>
       </c>
       <c r="D46" t="n">
-        <v>19.16816628215453</v>
+        <v>18.1730235919098</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.89821637465878</v>
+        <v>44.42816594905798</v>
       </c>
       <c r="D47" t="n">
-        <v>16.26721996622487</v>
+        <v>17.66440063594707</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.93645547810898</v>
+        <v>43.15981031765074</v>
       </c>
       <c r="D48" t="n">
-        <v>16.0562429001953</v>
+        <v>18.01387738417171</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.7493480525299</v>
+        <v>40.69258254179451</v>
       </c>
       <c r="D49" t="n">
-        <v>15.64954538337455</v>
+        <v>16.68571205062476</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.2063158084903</v>
+        <v>42.81105010817565</v>
       </c>
       <c r="D50" t="n">
-        <v>16.45787011869114</v>
+        <v>16.37882600836048</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.39887498067715</v>
+        <v>39.56686686751974</v>
       </c>
       <c r="D51" t="n">
-        <v>14.39177347605762</v>
+        <v>18.16817553395622</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.80977473198547</v>
+        <v>37.75938657098995</v>
       </c>
       <c r="D52" t="n">
-        <v>16.92606264371939</v>
+        <v>15.10868193625838</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.86044400906054</v>
+        <v>40.798683604755</v>
       </c>
       <c r="D53" t="n">
-        <v>15.99115731213662</v>
+        <v>14.9566183442695</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>35.53065130632238</v>
+        <v>36.94060652938732</v>
       </c>
       <c r="D54" t="n">
-        <v>16.25152239737699</v>
+        <v>17.74072288780945</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.43167822533579</v>
+        <v>34.63938909701874</v>
       </c>
       <c r="D55" t="n">
-        <v>19.30453915453118</v>
+        <v>15.59060204552286</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.97288091135375</v>
+        <v>37.70471601847991</v>
       </c>
       <c r="D56" t="n">
-        <v>16.51210154983902</v>
+        <v>16.44177466065154</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.17807753077808</v>
+        <v>32.65480966741064</v>
       </c>
       <c r="D57" t="n">
-        <v>17.14322618041599</v>
+        <v>16.09855497425082</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.97863293003125</v>
+        <v>40.04670003933243</v>
       </c>
       <c r="D58" t="n">
-        <v>16.34059895970607</v>
+        <v>17.66911268008695</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.18104573093314</v>
+        <v>32.8296226968975</v>
       </c>
       <c r="D59" t="n">
-        <v>18.78338326508997</v>
+        <v>15.08466042544544</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.13383613987389</v>
+        <v>31.83103312618015</v>
       </c>
       <c r="D60" t="n">
-        <v>15.97920466772032</v>
+        <v>14.96970490608911</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.27618974554336</v>
+        <v>26.84598318963093</v>
       </c>
       <c r="D61" t="n">
-        <v>15.65363134061864</v>
+        <v>17.77211749747263</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.91435127720664</v>
+        <v>29.15533529924813</v>
       </c>
       <c r="D62" t="n">
-        <v>17.13767574524053</v>
+        <v>18.58060890668908</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.99687008526965</v>
+        <v>25.45854749634114</v>
       </c>
       <c r="D63" t="n">
-        <v>19.82892000636535</v>
+        <v>15.94680957695211</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.40026121557423</v>
+        <v>26.56274047348245</v>
       </c>
       <c r="D64" t="n">
-        <v>18.14461482187001</v>
+        <v>17.13707516576523</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>30.04579916599914</v>
+        <v>25.55425607646873</v>
       </c>
       <c r="D65" t="n">
-        <v>17.27058525941859</v>
+        <v>14.91700793306973</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.9088550261328</v>
+        <v>24.13467978544368</v>
       </c>
       <c r="D66" t="n">
-        <v>17.98554510174231</v>
+        <v>18.92013240352104</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.17235842900032</v>
+        <v>28.52201706307494</v>
       </c>
       <c r="D67" t="n">
-        <v>18.42517251491753</v>
+        <v>15.94290185535992</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.18169524645782</v>
+        <v>25.2678774796756</v>
       </c>
       <c r="D68" t="n">
-        <v>17.62868239972321</v>
+        <v>14.34871057921959</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.11108833584639</v>
+        <v>23.22566289287656</v>
       </c>
       <c r="D69" t="n">
-        <v>15.62177677435255</v>
+        <v>17.42719820302912</v>
       </c>
     </row>
   </sheetData>
